--- a/data_year/zb/运输和邮电/民用航空航线及飞机架数.xlsx
+++ b/data_year/zb/运输和邮电/民用航空航线及飞机架数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,1499 +553,901 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>508405</v>
+        <v>1070167</v>
       </c>
       <c r="C2" t="n">
-        <v>1502880</v>
+        <v>2765147</v>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>186</v>
+        <v>650</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>462</v>
+        <v>1453</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="N2" t="n">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="O2" t="n">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="P2" t="n">
-        <v>1032</v>
+        <v>1578</v>
       </c>
       <c r="Q2" t="n">
-        <v>994482</v>
+        <v>1694980</v>
       </c>
       <c r="R2" t="n">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="S2" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="T2" t="n">
-        <v>55759</v>
+        <v>121437</v>
       </c>
       <c r="U2" t="n">
-        <v>1165</v>
+        <v>1880</v>
       </c>
       <c r="V2" t="n">
-        <v>527</v>
+        <v>1597</v>
       </c>
       <c r="W2" t="n">
-        <v>301</v>
+        <v>606</v>
       </c>
       <c r="X2" t="n">
-        <v>982</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516859</v>
+        <v>1494387</v>
       </c>
       <c r="C3" t="n">
-        <v>1553596</v>
+        <v>3490571</v>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
-      </c>
-      <c r="E3" t="n">
-        <v>27</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>198</v>
+        <v>700</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>486</v>
+        <v>1601</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>80</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>163</v>
+      </c>
+      <c r="N3" t="n">
+        <v>303</v>
+      </c>
       <c r="O3" t="n">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="P3" t="n">
-        <v>1009</v>
+        <v>1847</v>
       </c>
       <c r="Q3" t="n">
-        <v>1036737</v>
+        <v>1996184</v>
       </c>
       <c r="R3" t="n">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="S3" t="n">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="T3" t="n">
-        <v>55759</v>
+        <v>135103</v>
       </c>
       <c r="U3" t="n">
-        <v>1143</v>
+        <v>2290</v>
       </c>
       <c r="V3" t="n">
-        <v>566</v>
+        <v>1764</v>
       </c>
       <c r="W3" t="n">
-        <v>296</v>
+        <v>1124</v>
       </c>
       <c r="X3" t="n">
-        <v>1031</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>574500</v>
+        <v>1284712</v>
       </c>
       <c r="C4" t="n">
-        <v>1637700</v>
+        <v>3280114</v>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
-      </c>
-      <c r="E4" t="n">
-        <v>26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>234</v>
+        <v>756</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
-        <v>525</v>
+        <v>1769</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>77</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>172</v>
+      </c>
+      <c r="N4" t="n">
+        <v>328</v>
+      </c>
       <c r="O4" t="n">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="P4" t="n">
-        <v>1015</v>
+        <v>2076</v>
       </c>
       <c r="Q4" t="n">
-        <v>1063238</v>
+        <v>1995402</v>
       </c>
       <c r="R4" t="n">
-        <v>161</v>
+        <v>381</v>
       </c>
       <c r="S4" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="T4" t="n">
-        <v>61626</v>
+        <v>133333</v>
       </c>
       <c r="U4" t="n">
-        <v>1176</v>
+        <v>2457</v>
       </c>
       <c r="V4" t="n">
-        <v>602</v>
+        <v>1941</v>
       </c>
       <c r="W4" t="n">
-        <v>335</v>
+        <v>1320</v>
       </c>
       <c r="X4" t="n">
-        <v>1112</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>715300</v>
+        <v>1503150</v>
       </c>
       <c r="C5" t="n">
-        <v>1749500</v>
+        <v>4106000</v>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
-      </c>
-      <c r="E5" t="n">
-        <v>26</v>
-      </c>
-      <c r="F5" t="n">
-        <v>22</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>264</v>
+        <v>854</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I5" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" t="n">
-        <v>580</v>
+        <v>1985</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>84</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>160</v>
+      </c>
+      <c r="N5" t="n">
+        <v>340</v>
+      </c>
       <c r="O5" t="n">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="P5" t="n">
-        <v>961</v>
+        <v>2449</v>
       </c>
       <c r="Q5" t="n">
-        <v>1034276</v>
+        <v>2602850</v>
       </c>
       <c r="R5" t="n">
-        <v>194</v>
+        <v>427</v>
       </c>
       <c r="S5" t="n">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="T5" t="n">
-        <v>62874</v>
+        <v>168363</v>
       </c>
       <c r="U5" t="n">
-        <v>1155</v>
+        <v>2876</v>
       </c>
       <c r="V5" t="n">
-        <v>664</v>
+        <v>2145</v>
       </c>
       <c r="W5" t="n">
-        <v>343</v>
+        <v>1519</v>
       </c>
       <c r="X5" t="n">
-        <v>1160</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>894200</v>
+        <v>1767210</v>
       </c>
       <c r="C6" t="n">
-        <v>2049400</v>
+        <v>4637214</v>
       </c>
       <c r="D6" t="n">
-        <v>93</v>
-      </c>
-      <c r="E6" t="n">
-        <v>26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>304</v>
+        <v>958</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J6" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
-        <v>675</v>
+        <v>2218</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>79</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="N6" t="n">
+        <v>486</v>
+      </c>
       <c r="O6" t="n">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="P6" t="n">
-        <v>1035</v>
+        <v>2652</v>
       </c>
       <c r="Q6" t="n">
-        <v>1155219</v>
+        <v>2870004</v>
       </c>
       <c r="R6" t="n">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="S6" t="n">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="T6" t="n">
-        <v>62484</v>
+        <v>179320</v>
       </c>
       <c r="U6" t="n">
-        <v>1279</v>
+        <v>3142</v>
       </c>
       <c r="V6" t="n">
-        <v>754</v>
+        <v>2370</v>
       </c>
       <c r="W6" t="n">
-        <v>365</v>
+        <v>1798</v>
       </c>
       <c r="X6" t="n">
-        <v>1245</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>855900</v>
+        <v>2394434</v>
       </c>
       <c r="C7" t="n">
-        <v>1998500</v>
+        <v>5317230</v>
       </c>
       <c r="D7" t="n">
-        <v>115</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" t="n">
-        <v>22</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>358</v>
+        <v>1104</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>785</v>
+        <v>2499</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>78</v>
-      </c>
-      <c r="N7" t="n">
-        <v>140</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="P7" t="n">
-        <v>1024</v>
+        <v>2666</v>
       </c>
       <c r="Q7" t="n">
-        <v>1142569</v>
+        <v>2922796</v>
       </c>
       <c r="R7" t="n">
-        <v>233</v>
+        <v>660</v>
       </c>
       <c r="S7" t="n">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="T7" t="n">
-        <v>61056</v>
+        <v>171621</v>
       </c>
       <c r="U7" t="n">
-        <v>1257</v>
+        <v>3326</v>
       </c>
       <c r="V7" t="n">
-        <v>863</v>
+        <v>2650</v>
       </c>
       <c r="W7" t="n">
-        <v>383</v>
+        <v>1904</v>
       </c>
       <c r="X7" t="n">
-        <v>1386</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>966168</v>
+        <v>2828015</v>
       </c>
       <c r="C8" t="n">
-        <v>2113505</v>
+        <v>6348144</v>
       </c>
       <c r="D8" t="n">
-        <v>141</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>22</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>418</v>
+        <v>1216</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I8" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>921</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>2789</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="P8" t="n">
-        <v>1068</v>
+        <v>3055</v>
       </c>
       <c r="Q8" t="n">
-        <v>1147337</v>
+        <v>3520129</v>
       </c>
       <c r="R8" t="n">
-        <v>268</v>
+        <v>739</v>
       </c>
       <c r="S8" t="n">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="T8" t="n">
-        <v>62846</v>
+        <v>166812</v>
       </c>
       <c r="U8" t="n">
-        <v>1336</v>
+        <v>3794</v>
       </c>
       <c r="V8" t="n">
-        <v>998</v>
+        <v>2950</v>
       </c>
       <c r="W8" t="n">
-        <v>457</v>
+        <v>2096</v>
       </c>
       <c r="X8" t="n">
-        <v>1614</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1047418</v>
+        <v>3245859</v>
       </c>
       <c r="C9" t="n">
-        <v>2342961</v>
+        <v>7483033</v>
       </c>
       <c r="D9" t="n">
-        <v>160</v>
-      </c>
-      <c r="E9" t="n">
+        <v>814</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1357</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27</v>
+      </c>
+      <c r="I9" t="n">
+        <v>35</v>
+      </c>
+      <c r="J9" t="n">
         <v>12</v>
       </c>
-      <c r="F9" t="n">
-        <v>22</v>
-      </c>
-      <c r="G9" t="n">
-        <v>486</v>
-      </c>
-      <c r="H9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I9" t="n">
-        <v>56</v>
-      </c>
-      <c r="J9" t="n">
-        <v>22</v>
-      </c>
       <c r="K9" t="n">
-        <v>1050</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>3120</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
       <c r="M9" t="n">
-        <v>84</v>
-      </c>
-      <c r="N9" t="n">
-        <v>222</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="P9" t="n">
-        <v>1216</v>
+        <v>3615</v>
       </c>
       <c r="Q9" t="n">
-        <v>1295543</v>
+        <v>4237174</v>
       </c>
       <c r="R9" t="n">
-        <v>290</v>
+        <v>803</v>
       </c>
       <c r="S9" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="T9" t="n">
-        <v>71169</v>
+        <v>147537</v>
       </c>
       <c r="U9" t="n">
-        <v>1506</v>
+        <v>4418</v>
       </c>
       <c r="V9" t="n">
-        <v>1134</v>
+        <v>3296</v>
       </c>
       <c r="W9" t="n">
-        <v>457</v>
+        <v>2297</v>
       </c>
       <c r="X9" t="n">
-        <v>1813</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120166</v>
+        <v>3598911</v>
       </c>
       <c r="C10" t="n">
-        <v>2461840</v>
+        <v>8379833</v>
       </c>
       <c r="D10" t="n">
-        <v>186</v>
+        <v>892</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>22</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>527</v>
+        <v>1513</v>
       </c>
       <c r="H10" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I10" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>1155</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>3452</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
       <c r="M10" t="n">
-        <v>104</v>
-      </c>
-      <c r="N10" t="n">
-        <v>218</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="P10" t="n">
-        <v>1235</v>
+        <v>4096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1341674</v>
+        <v>4780922</v>
       </c>
       <c r="R10" t="n">
-        <v>297</v>
+        <v>849</v>
       </c>
       <c r="S10" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="T10" t="n">
-        <v>68592</v>
+        <v>153105</v>
       </c>
       <c r="U10" t="n">
-        <v>1532</v>
+        <v>4945</v>
       </c>
       <c r="V10" t="n">
-        <v>1259</v>
+        <v>3639</v>
       </c>
       <c r="W10" t="n">
-        <v>484</v>
+        <v>2495</v>
       </c>
       <c r="X10" t="n">
-        <v>1961</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>919899</v>
+        <v>4014686</v>
       </c>
       <c r="C11" t="n">
-        <v>2345085</v>
+        <v>9482204</v>
       </c>
       <c r="D11" t="n">
-        <v>219</v>
+        <v>996</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>22</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>593</v>
+        <v>1509</v>
       </c>
       <c r="H11" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I11" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K11" t="n">
-        <v>1297</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>3626</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21</v>
+      </c>
       <c r="M11" t="n">
-        <v>120</v>
-      </c>
-      <c r="N11" t="n">
-        <v>209</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="P11" t="n">
-        <v>1329</v>
+        <v>4568</v>
       </c>
       <c r="Q11" t="n">
-        <v>1425186</v>
+        <v>5467518</v>
       </c>
       <c r="R11" t="n">
-        <v>263</v>
+        <v>953</v>
       </c>
       <c r="S11" t="n">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="T11" t="n">
-        <v>107262</v>
+        <v>167104</v>
       </c>
       <c r="U11" t="n">
-        <v>1592</v>
+        <v>5521</v>
       </c>
       <c r="V11" t="n">
-        <v>1417</v>
+        <v>3818</v>
       </c>
       <c r="W11" t="n">
-        <v>555</v>
+        <v>2707</v>
       </c>
       <c r="X11" t="n">
-        <v>2181</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1070167</v>
+        <v>3828748</v>
       </c>
       <c r="C12" t="n">
-        <v>2765147</v>
+        <v>9426313</v>
       </c>
       <c r="D12" t="n">
-        <v>281</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
+        <v>1045</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="H12" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>1453</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+        <v>3701</v>
+      </c>
+      <c r="L12" t="n">
+        <v>42</v>
+      </c>
       <c r="M12" t="n">
-        <v>144</v>
-      </c>
-      <c r="N12" t="n">
         <v>202</v>
       </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="P12" t="n">
-        <v>1578</v>
+        <v>4686</v>
       </c>
       <c r="Q12" t="n">
-        <v>1694980</v>
+        <v>5597565</v>
       </c>
       <c r="R12" t="n">
-        <v>302</v>
+        <v>895</v>
       </c>
       <c r="S12" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="T12" t="n">
-        <v>121437</v>
+        <v>136783</v>
       </c>
       <c r="U12" t="n">
-        <v>1880</v>
+        <v>5581</v>
       </c>
       <c r="V12" t="n">
-        <v>1597</v>
+        <v>3903</v>
       </c>
       <c r="W12" t="n">
-        <v>606</v>
+        <v>2892</v>
       </c>
       <c r="X12" t="n">
-        <v>2405</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1494387</v>
+        <v>1319643</v>
       </c>
       <c r="C13" t="n">
-        <v>3490571</v>
+        <v>6897750</v>
       </c>
       <c r="D13" t="n">
-        <v>357</v>
+        <v>1129</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>700</v>
+        <v>1506</v>
       </c>
       <c r="H13" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I13" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
-        <v>1601</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>3840</v>
+      </c>
+      <c r="L13" t="n">
+        <v>58</v>
+      </c>
       <c r="M13" t="n">
-        <v>163</v>
-      </c>
-      <c r="N13" t="n">
-        <v>303</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="P13" t="n">
-        <v>1847</v>
+        <v>4585</v>
       </c>
       <c r="Q13" t="n">
-        <v>1996184</v>
+        <v>5578107</v>
       </c>
       <c r="R13" t="n">
-        <v>443</v>
+        <v>279</v>
       </c>
       <c r="S13" t="n">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="T13" t="n">
-        <v>135103</v>
+        <v>29426</v>
       </c>
       <c r="U13" t="n">
-        <v>2290</v>
+        <v>4864</v>
       </c>
       <c r="V13" t="n">
-        <v>1764</v>
+        <v>4054</v>
       </c>
       <c r="W13" t="n">
-        <v>1124</v>
+        <v>3018</v>
       </c>
       <c r="X13" t="n">
-        <v>3191</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1284712</v>
+        <v>1537400</v>
       </c>
       <c r="C14" t="n">
-        <v>3280114</v>
-      </c>
-      <c r="D14" t="n">
-        <v>432</v>
-      </c>
+        <v>6998900</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>756</v>
-      </c>
-      <c r="H14" t="n">
-        <v>40</v>
-      </c>
-      <c r="I14" t="n">
-        <v>46</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>1769</v>
+        <v>3919</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>172</v>
-      </c>
-      <c r="N14" t="n">
-        <v>328</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="P14" t="n">
-        <v>2076</v>
+        <v>4334</v>
       </c>
       <c r="Q14" t="n">
-        <v>1995402</v>
+        <v>5461500</v>
       </c>
       <c r="R14" t="n">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="S14" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="T14" t="n">
-        <v>133333</v>
+        <v>35400</v>
       </c>
       <c r="U14" t="n">
-        <v>2457</v>
+        <v>4670</v>
       </c>
       <c r="V14" t="n">
-        <v>1941</v>
+        <v>4165</v>
       </c>
       <c r="W14" t="n">
-        <v>1320</v>
+        <v>3186</v>
       </c>
       <c r="X14" t="n">
-        <v>3589</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1503150</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4106000</v>
-      </c>
-      <c r="D15" t="n">
-        <v>503</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>854</v>
-      </c>
-      <c r="H15" t="n">
-        <v>29</v>
-      </c>
-      <c r="I15" t="n">
-        <v>45</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1985</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>160</v>
-      </c>
-      <c r="N15" t="n">
-        <v>340</v>
-      </c>
-      <c r="O15" t="n">
-        <v>190</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2449</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2602850</v>
-      </c>
-      <c r="R15" t="n">
-        <v>427</v>
-      </c>
-      <c r="S15" t="n">
-        <v>107</v>
-      </c>
-      <c r="T15" t="n">
-        <v>168363</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2876</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2145</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1519</v>
-      </c>
-      <c r="X15" t="n">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1767210</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4637214</v>
-      </c>
-      <c r="D16" t="n">
-        <v>579</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>958</v>
-      </c>
-      <c r="H16" t="n">
-        <v>24</v>
-      </c>
-      <c r="I16" t="n">
-        <v>41</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2218</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>152</v>
-      </c>
-      <c r="N16" t="n">
-        <v>486</v>
-      </c>
-      <c r="O16" t="n">
-        <v>200</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2652</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2870004</v>
-      </c>
-      <c r="R16" t="n">
-        <v>490</v>
-      </c>
-      <c r="S16" t="n">
-        <v>114</v>
-      </c>
-      <c r="T16" t="n">
-        <v>179320</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3142</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2370</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1798</v>
-      </c>
-      <c r="X16" t="n">
-        <v>4168</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2394434</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5317230</v>
-      </c>
-      <c r="D17" t="n">
-        <v>645</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>1104</v>
-      </c>
-      <c r="H17" t="n">
-        <v>26</v>
-      </c>
-      <c r="I17" t="n">
-        <v>35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2499</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>151</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>206</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2666</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2922796</v>
-      </c>
-      <c r="R17" t="n">
-        <v>660</v>
-      </c>
-      <c r="S17" t="n">
-        <v>109</v>
-      </c>
-      <c r="T17" t="n">
-        <v>171621</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3326</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2650</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1904</v>
-      </c>
-      <c r="X17" t="n">
-        <v>4554</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2828015</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6348144</v>
-      </c>
-      <c r="D18" t="n">
-        <v>728</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>1216</v>
-      </c>
-      <c r="H18" t="n">
-        <v>26</v>
-      </c>
-      <c r="I18" t="n">
-        <v>33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2789</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>161</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>216</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3055</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3520129</v>
-      </c>
-      <c r="R18" t="n">
-        <v>739</v>
-      </c>
-      <c r="S18" t="n">
-        <v>109</v>
-      </c>
-      <c r="T18" t="n">
-        <v>166812</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3794</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2950</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2096</v>
-      </c>
-      <c r="X18" t="n">
-        <v>5046</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3245859</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7483033</v>
-      </c>
-      <c r="D19" t="n">
-        <v>814</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>1357</v>
-      </c>
-      <c r="H19" t="n">
-        <v>27</v>
-      </c>
-      <c r="I19" t="n">
-        <v>35</v>
-      </c>
-      <c r="J19" t="n">
-        <v>12</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3120</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>176</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>228</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3615</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4237174</v>
-      </c>
-      <c r="R19" t="n">
-        <v>803</v>
-      </c>
-      <c r="S19" t="n">
-        <v>96</v>
-      </c>
-      <c r="T19" t="n">
-        <v>147537</v>
-      </c>
-      <c r="U19" t="n">
-        <v>4418</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3296</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2297</v>
-      </c>
-      <c r="X19" t="n">
-        <v>5593</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3598911</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8379833</v>
-      </c>
-      <c r="D20" t="n">
-        <v>892</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>1513</v>
-      </c>
-      <c r="H20" t="n">
-        <v>24</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3452</v>
-      </c>
-      <c r="L20" t="n">
-        <v>10</v>
-      </c>
-      <c r="M20" t="n">
-        <v>187</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>233</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4780922</v>
-      </c>
-      <c r="R20" t="n">
-        <v>849</v>
-      </c>
-      <c r="S20" t="n">
-        <v>100</v>
-      </c>
-      <c r="T20" t="n">
-        <v>153105</v>
-      </c>
-      <c r="U20" t="n">
-        <v>4945</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3639</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2495</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6134</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4014686</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9482204</v>
-      </c>
-      <c r="D21" t="n">
-        <v>996</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>1509</v>
-      </c>
-      <c r="H21" t="n">
-        <v>25</v>
-      </c>
-      <c r="I21" t="n">
-        <v>49</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3626</v>
-      </c>
-      <c r="L21" t="n">
-        <v>21</v>
-      </c>
-      <c r="M21" t="n">
-        <v>192</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>237</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4568</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5467518</v>
-      </c>
-      <c r="R21" t="n">
-        <v>953</v>
-      </c>
-      <c r="S21" t="n">
-        <v>111</v>
-      </c>
-      <c r="T21" t="n">
-        <v>167104</v>
-      </c>
-      <c r="U21" t="n">
-        <v>5521</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3818</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2707</v>
-      </c>
-      <c r="X21" t="n">
-        <v>6525</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3828748</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9426313</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1045</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H22" t="n">
-        <v>23</v>
-      </c>
-      <c r="I22" t="n">
-        <v>54</v>
-      </c>
-      <c r="J22" t="n">
-        <v>8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3701</v>
-      </c>
-      <c r="L22" t="n">
-        <v>42</v>
-      </c>
-      <c r="M22" t="n">
-        <v>202</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>240</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4686</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5597565</v>
-      </c>
-      <c r="R22" t="n">
-        <v>895</v>
-      </c>
-      <c r="S22" t="n">
-        <v>94</v>
-      </c>
-      <c r="T22" t="n">
-        <v>136783</v>
-      </c>
-      <c r="U22" t="n">
-        <v>5581</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3903</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2892</v>
-      </c>
-      <c r="X22" t="n">
-        <v>6795</v>
+        <v>7351</v>
       </c>
     </row>
   </sheetData>
